--- a/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsRepository\sorensenLab\relatedToDlg2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20211206_expressionDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D7975-426E-4E24-987B-99FD9C2FE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25185" windowHeight="11205"/>
+    <workbookView xWindow="3945" yWindow="1800" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="247">
   <si>
     <t>RNAseq</t>
   </si>
@@ -32,9 +33,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>human protein atlas</t>
-  </si>
-  <si>
     <t>brain</t>
   </si>
   <si>
@@ -47,9 +45,6 @@
     <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-2836/</t>
   </si>
   <si>
-    <t>boulay, cell 2017</t>
-  </si>
-  <si>
     <t>GSE94278</t>
   </si>
   <si>
@@ -71,18 +66,12 @@
     <t>pmid</t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
     <t>geo</t>
   </si>
   <si>
     <t>sra</t>
   </si>
   <si>
-    <t>arrayExpress</t>
-  </si>
-  <si>
     <t>siteOrigin</t>
   </si>
   <si>
@@ -128,9 +117,6 @@
     <t>GSE61953</t>
   </si>
   <si>
-    <t>riggi, cancer cell 2014</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61953</t>
   </si>
   <si>
@@ -141,12 +127,651 @@
   </si>
   <si>
     <t>a673, sknmc, shEwsFli1 for 48h and 96h</t>
+  </si>
+  <si>
+    <t>gollavilli</t>
+  </si>
+  <si>
+    <t>GSE113604</t>
+  </si>
+  <si>
+    <t>PRJNA453371</t>
+  </si>
+  <si>
+    <t>chla10, cadoes, rdes, sknmc, with JQ1 treatment</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE113604</t>
+  </si>
+  <si>
+    <t>GSE103843</t>
+  </si>
+  <si>
+    <t>PRJNA407227</t>
+  </si>
+  <si>
+    <t>tc32, siEWSR1, siFLI1 treatment, 48h</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE103843</t>
+  </si>
+  <si>
+    <t>ebi</t>
+  </si>
+  <si>
+    <t>EGAS00001003333</t>
+  </si>
+  <si>
+    <t>57 ews patients</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/studies/EGAS00001003333</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>PRJNA610192</t>
+  </si>
+  <si>
+    <t>18 ews cell lines</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2021.06.08.447518v1.full</t>
+  </si>
+  <si>
+    <t>microarray</t>
+  </si>
+  <si>
+    <t>18 ews cell lines, various targets</t>
+  </si>
+  <si>
+    <t>18 ews cell lines, expression profiling shFLI1, 96h</t>
+  </si>
+  <si>
+    <t>GSE176339</t>
+  </si>
+  <si>
+    <t>PRJNA736073</t>
+  </si>
+  <si>
+    <t>PRJNA735247</t>
+  </si>
+  <si>
+    <t>GSE130025</t>
+  </si>
+  <si>
+    <t>PRJNA530244</t>
+  </si>
+  <si>
+    <t>a673 shEF1 timecourse</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129155</t>
+  </si>
+  <si>
+    <t>PRJNA523380</t>
+  </si>
+  <si>
+    <t>cancer cell line encyclopedia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA523380</t>
+  </si>
+  <si>
+    <t>E-MTAB-6814</t>
+  </si>
+  <si>
+    <t>brain tissue across development</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6814/</t>
+  </si>
+  <si>
+    <t>https://www-ncbi-nlm-nih-gov.ezproxy.u-pec.fr/geo/query/acc.cgi?acc=GSE142162</t>
+  </si>
+  <si>
+    <t>79 ews patients</t>
+  </si>
+  <si>
+    <t>GSE142162</t>
+  </si>
+  <si>
+    <t>PRJNA596105</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE27524</t>
+  </si>
+  <si>
+    <t>GSE27524</t>
+  </si>
+  <si>
+    <t>a673 dox timecourse</t>
+  </si>
+  <si>
+    <t>PRJNA137111</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse17679</t>
+  </si>
+  <si>
+    <t>117 ews patients</t>
+  </si>
+  <si>
+    <t>GSE17679</t>
+  </si>
+  <si>
+    <t>PRJNA118469</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>nar</t>
+  </si>
+  <si>
+    <t>cancers</t>
+  </si>
+  <si>
+    <t>cancer res</t>
+  </si>
+  <si>
+    <t>mol carcinog</t>
+  </si>
+  <si>
+    <t>cell rep</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>genome res</t>
+  </si>
+  <si>
+    <t>isrn oncol</t>
+  </si>
+  <si>
+    <t>j clin oncol</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>boulay</t>
+  </si>
+  <si>
+    <t>riggi</t>
+  </si>
+  <si>
+    <t>saulnier</t>
+  </si>
+  <si>
+    <t>garcia</t>
+  </si>
+  <si>
+    <t>ghandi</t>
+  </si>
+  <si>
+    <t>hpa</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>aynaud</t>
+  </si>
+  <si>
+    <t>moreira</t>
+  </si>
+  <si>
+    <t>surdez</t>
+  </si>
+  <si>
+    <t>bilke</t>
+  </si>
+  <si>
+    <t>savola</t>
+  </si>
+  <si>
+    <t>scotlandi</t>
+  </si>
+  <si>
+    <t>GSE12102</t>
+  </si>
+  <si>
+    <t>PRJNA113791</t>
+  </si>
+  <si>
+    <t>37 ews patients</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE12102</t>
+  </si>
+  <si>
+    <t>postel-vinay</t>
+  </si>
+  <si>
+    <t>nature genet</t>
+  </si>
+  <si>
+    <t>GSE34620</t>
+  </si>
+  <si>
+    <t>PRJNA151293</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE34620</t>
+  </si>
+  <si>
+    <t>zollner</t>
+  </si>
+  <si>
+    <t>sci signal</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE103837</t>
+  </si>
+  <si>
+    <t>GSE103837</t>
+  </si>
+  <si>
+    <t>PRJNA407215</t>
+  </si>
+  <si>
+    <t>tc32, shFLI1, cant determine the timepoint, but could be up to 5 days</t>
+  </si>
+  <si>
+    <t>svoboda</t>
+  </si>
+  <si>
+    <t>epigenetics</t>
+  </si>
+  <si>
+    <t>GSE68776</t>
+  </si>
+  <si>
+    <t>PRJNA283790</t>
+  </si>
+  <si>
+    <t>74 ews and normal patients</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse68776</t>
+  </si>
+  <si>
+    <t>tirode</t>
+  </si>
+  <si>
+    <t>GSE7007</t>
+  </si>
+  <si>
+    <t>PRJNA99237</t>
+  </si>
+  <si>
+    <t>mix of tissues and cell lines with shEF1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE7007</t>
+  </si>
+  <si>
+    <t>volchenboum</t>
+  </si>
+  <si>
+    <t>j pathol clin res</t>
+  </si>
+  <si>
+    <t>GSE63157</t>
+  </si>
+  <si>
+    <t>PRJNA266831</t>
+  </si>
+  <si>
+    <t>85 ews samples</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse63157</t>
+  </si>
+  <si>
+    <t>gordon</t>
+  </si>
+  <si>
+    <t>oncogene</t>
+  </si>
+  <si>
+    <t>GSE64686</t>
+  </si>
+  <si>
+    <t>PRJNA271644</t>
+  </si>
+  <si>
+    <t>EF1 expression impact on stem cells</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE64686</t>
+  </si>
+  <si>
+    <t>kauer</t>
+  </si>
+  <si>
+    <t>plos one</t>
+  </si>
+  <si>
+    <t>GSE14543</t>
+  </si>
+  <si>
+    <t>PRJNA111633</t>
+  </si>
+  <si>
+    <t>cell lines with siEF1 expression</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE14543</t>
+  </si>
+  <si>
+    <t>houghton</t>
+  </si>
+  <si>
+    <t>GSE171205</t>
+  </si>
+  <si>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>PRJNA718634</t>
+  </si>
+  <si>
+    <t>ew8 cell line with inhibition of EF1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE171205</t>
+  </si>
+  <si>
+    <t>richter</t>
+  </si>
+  <si>
+    <t>GSE162789</t>
+  </si>
+  <si>
+    <t>PRJNA683017</t>
+  </si>
+  <si>
+    <t>various ews cell lines with HDAC conditions</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE162789</t>
+  </si>
+  <si>
+    <t>PRJNA521683</t>
+  </si>
+  <si>
+    <t>various cell lines with EF1 expression</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/PRJNA521683</t>
+  </si>
+  <si>
+    <t>henderson</t>
+  </si>
+  <si>
+    <t>GSE39262</t>
+  </si>
+  <si>
+    <t>PRJNA170430</t>
+  </si>
+  <si>
+    <t>sarcoma</t>
+  </si>
+  <si>
+    <t>various sarcoma cell lines</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE39262</t>
+  </si>
+  <si>
+    <t>iljin</t>
+  </si>
+  <si>
+    <t>GSE73092</t>
+  </si>
+  <si>
+    <t>rnai screen of a673 cells</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73092</t>
+  </si>
+  <si>
+    <t>gorthi</t>
+  </si>
+  <si>
+    <t>GSE68836</t>
+  </si>
+  <si>
+    <t>PRJNA283885</t>
+  </si>
+  <si>
+    <t>PRJNA296043</t>
+  </si>
+  <si>
+    <t>cell lines</t>
+  </si>
+  <si>
+    <t>various ews cell lines, looks at Rloops</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE68836</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>GSE4565</t>
+  </si>
+  <si>
+    <t>PRJNA94491</t>
+  </si>
+  <si>
+    <t>various ews cell lines with EF1 timecourse</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE4565</t>
+  </si>
+  <si>
+    <t>rabbitts</t>
+  </si>
+  <si>
+    <t>GSE53066</t>
+  </si>
+  <si>
+    <t>PRJNA230789</t>
+  </si>
+  <si>
+    <t>various ews cell lines with EF1 expression</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE53066</t>
+  </si>
+  <si>
+    <t>gierisch</t>
+  </si>
+  <si>
+    <t>j biol chem</t>
+  </si>
+  <si>
+    <t>GSE81018</t>
+  </si>
+  <si>
+    <t>PRJNA320295</t>
+  </si>
+  <si>
+    <t>varous ews cells with EF1 expression modulation</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE81018</t>
+  </si>
+  <si>
+    <t>von heyking</t>
+  </si>
+  <si>
+    <t>oncotarget</t>
+  </si>
+  <si>
+    <t>GSE68898</t>
+  </si>
+  <si>
+    <t>PRJNA283989</t>
+  </si>
+  <si>
+    <t>neural stem cells induced with EF1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE68898</t>
+  </si>
+  <si>
+    <t>agra</t>
+  </si>
+  <si>
+    <t>GSE36007</t>
+  </si>
+  <si>
+    <t>PRJNA151705</t>
+  </si>
+  <si>
+    <t>a673 cells plus minus EF1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE36007</t>
+  </si>
+  <si>
+    <t>selvanathan</t>
+  </si>
+  <si>
+    <t>pnas</t>
+  </si>
+  <si>
+    <t>GSE21511</t>
+  </si>
+  <si>
+    <t>PRJNA125985</t>
+  </si>
+  <si>
+    <t>stem cells with EF1 expression</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE21511</t>
+  </si>
+  <si>
+    <t>stem cells</t>
+  </si>
+  <si>
+    <t>aryee</t>
+  </si>
+  <si>
+    <t>GSE19197</t>
+  </si>
+  <si>
+    <t>PRJNA120859</t>
+  </si>
+  <si>
+    <t>ews cells in hypoxia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE19197</t>
+  </si>
+  <si>
+    <t>miyagawa</t>
+  </si>
+  <si>
+    <t>mol cell biol</t>
+  </si>
+  <si>
+    <t>GSE8665</t>
+  </si>
+  <si>
+    <t>PRJNA101871</t>
+  </si>
+  <si>
+    <t>EF1 in MSCs</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE8665</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>GSE117485</t>
+  </si>
+  <si>
+    <t>PRJNA482316</t>
+  </si>
+  <si>
+    <t>a673 and sknmc rnaseq</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE117485</t>
+  </si>
+  <si>
+    <t>genes dev</t>
+  </si>
+  <si>
+    <t>GSE106915</t>
+  </si>
+  <si>
+    <t>PRJNA418458</t>
+  </si>
+  <si>
+    <t>GRO-seq of ews cell lines</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE106915</t>
+  </si>
+  <si>
+    <t>GSE65941</t>
+  </si>
+  <si>
+    <t>PRJNA275445</t>
+  </si>
+  <si>
+    <t>ews cells lines plus/minus EF1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE65941</t>
+  </si>
+  <si>
+    <t>stegmaier</t>
+  </si>
+  <si>
+    <t>plod med</t>
+  </si>
+  <si>
+    <t>GSE6930</t>
+  </si>
+  <si>
+    <t>PRJNA98089</t>
+  </si>
+  <si>
+    <t>a673 cells with various drugs</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE6930</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,6 +817,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,257 +1103,1970 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="50.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="3">
+        <v>28844694</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25453903</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>28844694</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>28844694</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="3">
+        <v>29898995</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="3">
+        <v>29873416</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34830820</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="3">
+        <v>32049009</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28844694</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D10" s="3">
         <v>25453903</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34009296</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3">
-        <v>25453903</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="3">
+        <v>34830820</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="3">
+        <v>34830820</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="3">
+        <v>31068700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31243369</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="3">
+        <v>33930311</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="3">
+        <v>23940108</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="3">
+        <v>22084725</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19307502</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D20" s="3">
+        <v>22327514</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="3">
+        <v>28974650</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25625846</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D23" s="3">
+        <v>17482132</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D24" s="3">
+        <v>26052443</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="3">
+        <v>26455317</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" t="s">
+        <v>144</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D26" s="3">
+        <v>19404404</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="3">
+        <v>34009296</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" t="s">
+        <v>174</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="3">
+        <v>29513652</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M32" t="s">
+        <v>181</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16697960</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M33" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M34" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D35" s="3">
+        <v>27875302</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" t="s">
+        <v>197</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D36" s="3">
+        <v>27363011</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" t="s">
+        <v>203</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D37" s="3">
+        <v>23750284</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25737553</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M38" t="s">
+        <v>214</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20442286</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M39" t="s">
+        <v>220</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18212050</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" t="s">
+        <v>226</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="3">
+        <v>30496486</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" t="s">
+        <v>231</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D42" s="3">
+        <v>30042132</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M42" t="s">
+        <v>236</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25737553</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M43" t="s">
+        <v>240</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D44" s="3">
+        <v>17425403</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M44" t="s">
+        <v>246</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
+    <sortCondition descending="1" ref="N2:N44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20211206_expressionDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D7975-426E-4E24-987B-99FD9C2FE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BA229-3B35-4418-BA29-94BF7FAEF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="1800" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="248">
   <si>
     <t>RNAseq</t>
   </si>
@@ -231,12 +231,6 @@
     <t>https://www-ncbi-nlm-nih-gov.ezproxy.u-pec.fr/geo/query/acc.cgi?acc=GSE142162</t>
   </si>
   <si>
-    <t>79 ews patients</t>
-  </si>
-  <si>
-    <t>GSE142162</t>
-  </si>
-  <si>
     <t>PRJNA596105</t>
   </si>
   <si>
@@ -766,6 +760,15 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE6930</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>79 ews patients, this study also has some RNAseq</t>
+  </si>
+  <si>
+    <t>GSE133228</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,18 +1127,18 @@
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="50.28515625" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
@@ -1173,13 +1176,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1217,10 +1220,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3">
         <v>2017</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>2014</v>
@@ -1308,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3">
         <v>2021</v>
@@ -1437,10 +1440,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3">
         <v>2020</v>
@@ -1481,10 +1484,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3">
         <v>2017</v>
@@ -1525,10 +1528,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3">
         <v>2014</v>
@@ -1569,10 +1572,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3">
         <v>2021</v>
@@ -1613,10 +1616,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3">
         <v>2021</v>
@@ -1652,15 +1655,15 @@
         <v>50</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3">
         <v>2021</v>
@@ -1701,10 +1704,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3">
         <v>2019</v>
@@ -1745,10 +1748,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3">
         <v>2019</v>
@@ -1789,10 +1792,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3">
         <v>2021</v>
@@ -1804,10 +1807,10 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>1</v>
@@ -1822,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="M16" t="s">
         <v>67</v>
@@ -1833,10 +1836,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3">
         <v>2013</v>
@@ -1848,10 +1851,10 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>1</v>
@@ -1866,10 +1869,10 @@
         <v>9</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>27</v>
@@ -1877,10 +1880,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3">
         <v>2011</v>
@@ -1892,10 +1895,10 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>1</v>
@@ -1910,10 +1913,10 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>27</v>
@@ -1921,10 +1924,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3">
         <v>2009</v>
@@ -1936,10 +1939,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>1</v>
@@ -1954,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>27</v>
@@ -1965,10 +1968,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3">
         <v>2012</v>
@@ -1980,10 +1983,10 @@
         <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>1</v>
@@ -1998,10 +2001,10 @@
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>27</v>
@@ -2009,10 +2012,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3">
         <v>2017</v>
@@ -2024,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>1</v>
@@ -2042,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>27</v>
@@ -2053,10 +2056,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3">
         <v>2014</v>
@@ -2068,10 +2071,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>1</v>
@@ -2086,10 +2089,10 @@
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>27</v>
@@ -2097,10 +2100,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>2007</v>
@@ -2112,10 +2115,10 @@
         <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>1</v>
@@ -2130,10 +2133,10 @@
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>27</v>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3">
         <v>2015</v>
@@ -2156,10 +2159,10 @@
         <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>1</v>
@@ -2174,10 +2177,10 @@
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>27</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3">
         <v>2016</v>
@@ -2200,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>1</v>
@@ -2218,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>27</v>
@@ -2229,10 +2232,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3">
         <v>2009</v>
@@ -2244,10 +2247,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>1</v>
@@ -2262,10 +2265,10 @@
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>27</v>
@@ -2273,25 +2276,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
         <v>2021</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>1</v>
@@ -2306,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>27</v>
@@ -2317,25 +2320,25 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
         <v>2021</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
@@ -2350,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>27</v>
@@ -2361,10 +2364,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>2021</v>
@@ -2379,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>1</v>
@@ -2394,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>27</v>
@@ -2405,31 +2408,31 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3">
         <v>2013</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>20</v>
@@ -2438,10 +2441,10 @@
         <v>9</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>27</v>
@@ -2449,25 +2452,25 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3">
         <v>2018</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>1</v>
@@ -2482,10 +2485,10 @@
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>27</v>
@@ -2493,10 +2496,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3">
         <v>2018</v>
@@ -2508,28 +2511,28 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" t="s">
         <v>179</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M32" t="s">
-        <v>181</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>27</v>
@@ -2537,10 +2540,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3">
         <v>2006</v>
@@ -2552,28 +2555,28 @@
         <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="M33" t="s">
         <v>184</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M33" t="s">
-        <v>186</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>27</v>
@@ -2581,43 +2584,43 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3">
         <v>2016</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="M34" t="s">
         <v>189</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" t="s">
-        <v>191</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>27</v>
@@ -2625,10 +2628,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="3">
         <v>2016</v>
@@ -2640,28 +2643,28 @@
         <v>51</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="M35" t="s">
         <v>195</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s">
-        <v>197</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>27</v>
@@ -2669,10 +2672,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" s="3">
         <v>2016</v>
@@ -2684,28 +2687,28 @@
         <v>51</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="M36" t="s">
         <v>201</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="M36" t="s">
-        <v>203</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>27</v>
@@ -2713,10 +2716,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3">
         <v>2013</v>
@@ -2728,28 +2731,28 @@
         <v>51</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="M37" t="s">
         <v>206</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M37" t="s">
-        <v>208</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>27</v>
@@ -2757,10 +2760,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C38" s="3">
         <v>2015</v>
@@ -2772,28 +2775,28 @@
         <v>51</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>27</v>
@@ -2801,10 +2804,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3">
         <v>2010</v>
@@ -2816,28 +2819,28 @@
         <v>51</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="M39" t="s">
         <v>218</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M39" t="s">
-        <v>220</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>27</v>
@@ -2845,10 +2848,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3">
         <v>2008</v>
@@ -2860,28 +2863,28 @@
         <v>51</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>27</v>
@@ -2889,10 +2892,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>2019</v>
@@ -2904,28 +2907,28 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="M41" t="s">
         <v>229</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="M41" t="s">
-        <v>231</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>27</v>
@@ -2933,10 +2936,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3">
         <v>2018</v>
@@ -2948,28 +2951,28 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="M42" t="s">
         <v>234</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M42" t="s">
-        <v>236</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>27</v>
@@ -2977,10 +2980,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C43" s="3">
         <v>2015</v>
@@ -2992,28 +2995,28 @@
         <v>51</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="M43" t="s">
         <v>238</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="M43" t="s">
-        <v>240</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>27</v>
@@ -3021,10 +3024,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C44" s="3">
         <v>2007</v>
@@ -3036,28 +3039,28 @@
         <v>51</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="M44" t="s">
         <v>244</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="M44" t="s">
-        <v>246</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>27</v>

--- a/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20211206_expressionDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BA229-3B35-4418-BA29-94BF7FAEF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982E3F5-5617-42E4-A17F-C13F586F7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1800" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="2490" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="256">
   <si>
     <t>RNAseq</t>
   </si>
@@ -769,6 +769,30 @@
   </si>
   <si>
     <t>GSE133228</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>GSE150777</t>
+  </si>
+  <si>
+    <t>PRJNA633556</t>
+  </si>
+  <si>
+    <t>MSC transformed into ews cells</t>
+  </si>
+  <si>
+    <t>https://www-ncbi-nlm-nih-gov.ezproxy.u-pec.fr/geo/query/acc.cgi?acc=GSE150777</t>
+  </si>
+  <si>
+    <t>https://www-ncbi-nlm-nih-gov.ezproxy.u-pec.fr/geo/query/acc.cgi?acc=GSE150776</t>
+  </si>
+  <si>
+    <t>GSE150776</t>
+  </si>
+  <si>
+    <t>PRJNA633555</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,6 +3090,94 @@
         <v>27</v>
       </c>
     </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D45" s="3">
+        <v>34341072</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M45" t="s">
+        <v>252</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D46" s="3">
+        <v>34341072</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" t="s">
+        <v>253</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
     <sortCondition descending="1" ref="N2:N44"/>

--- a/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211206_expressionDatasets/expressionDatasets.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20211206_expressionDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982E3F5-5617-42E4-A17F-C13F586F7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD02348-761A-40B1-96AE-F4E22F9D685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2490" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1785" windowWidth="22725" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="279">
   <si>
     <t>RNAseq</t>
   </si>
@@ -768,9 +768,6 @@
     <t>79 ews patients, this study also has some RNAseq</t>
   </si>
   <si>
-    <t>GSE133228</t>
-  </si>
-  <si>
     <t>sole</t>
   </si>
   <si>
@@ -793,6 +790,78 @@
   </si>
   <si>
     <t>PRJNA633555</t>
+  </si>
+  <si>
+    <t>E-GEOD-4560</t>
+  </si>
+  <si>
+    <t>GSE176190</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>[Clariom_D_Human] Affymetrix Human Clariom D Assay [transcript (gene) version]</t>
+  </si>
+  <si>
+    <t>GSE142162</t>
+  </si>
+  <si>
+    <t>[HG-U133_Plus_2] Affymetrix Human Genome U133 Plus 2.0 Array [CDF: Brainarray HGU133Plus2_Hs_ENTREZG 14.0.0]</t>
+  </si>
+  <si>
+    <t>[HG-U133A_2] Affymetrix Human Genome U133A 2.0 Array</t>
+  </si>
+  <si>
+    <t>[HG-U133_Plus_2] Affymetrix Human Genome U133 Plus 2.0 Array</t>
+  </si>
+  <si>
+    <t>[HuEx-1_0-st] Affymetrix Human Exon 1.0 ST Array [transcript (gene) version]</t>
+  </si>
+  <si>
+    <t>[HG-U133A] Affymetrix Human Genome U133A Array</t>
+  </si>
+  <si>
+    <t>[HuGene-1_0-st] Affymetrix Human Gene 1.0 ST Array [transcript (gene) version]</t>
+  </si>
+  <si>
+    <t>[HuGene-2_0-st] Affymetrix Human Gene 2.0 ST Array [transcript (gene) version]</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>[HuEx-1_0-st] Affymetrix Human Exon 1.0 ST Array [probe set (exon) version]</t>
+  </si>
+  <si>
+    <t>[U133AAofAv2] Affymetrix GeneChip HT-HG_U133A Early Access Array</t>
+  </si>
+  <si>
+    <t>annotationShort</t>
+  </si>
+  <si>
+    <t>u133aaofav2</t>
+  </si>
+  <si>
+    <t>huex10st</t>
+  </si>
+  <si>
+    <t>clariomd</t>
+  </si>
+  <si>
+    <t>hgu133plus2</t>
+  </si>
+  <si>
+    <t>hgu133a</t>
+  </si>
+  <si>
+    <t>hugene20st</t>
+  </si>
+  <si>
+    <t>hugene10st</t>
+  </si>
+  <si>
+    <t>hgu133a2</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,15 +1215,17 @@
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="50.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="69.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="50.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -1180,245 +1251,281 @@
         <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="3">
+        <v>34830820</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3">
+        <v>32049009</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>2017</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>28844694</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>2014</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>25453903</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="P5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="3">
-        <v>29898995</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="C6" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D6" s="3">
-        <v>29873416</v>
+        <v>34341072</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O6" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1432,1755 +1539,1995 @@
         <v>34830820</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D8" s="3">
-        <v>32049009</v>
+        <v>33930311</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23940108</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28844694</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="3">
+        <v>22084725</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D11" s="3">
+        <v>19307502</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D12" s="3">
+        <v>22327514</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3">
         <v>2014</v>
       </c>
-      <c r="D10" s="3">
-        <v>25453903</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="3">
-        <v>34009296</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="3">
-        <v>34830820</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2021</v>
-      </c>
       <c r="D13" s="3">
-        <v>34830820</v>
+        <v>25625846</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="D14" s="3">
-        <v>31068700</v>
+        <v>17482132</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D15" s="3">
-        <v>31243369</v>
+        <v>26052443</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D16" s="3">
-        <v>33930311</v>
+        <v>26455317</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D17" s="3">
-        <v>23940108</v>
+        <v>19404404</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D18" s="3">
-        <v>22084725</v>
+        <v>2021</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D19" s="3">
-        <v>19307502</v>
+        <v>2013</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D20" s="3">
-        <v>22327514</v>
+        <v>16697960</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="C21" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D21" s="3">
-        <v>28974650</v>
+        <v>27875302</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M21" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>195</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C22" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D22" s="3">
-        <v>25625846</v>
+        <v>27363011</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D23" s="3">
-        <v>17482132</v>
+        <v>23750284</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3">
         <v>2015</v>
       </c>
       <c r="D24" s="3">
-        <v>26052443</v>
+        <v>25737553</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>212</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D25" s="3">
-        <v>26455317</v>
+        <v>20442286</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" t="s">
-        <v>142</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>218</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="C26" s="3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D26" s="3">
-        <v>19404404</v>
+        <v>18212050</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M26" t="s">
-        <v>148</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s">
+        <v>224</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C27" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>2015</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25737553</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M27" t="s">
-        <v>154</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="C28" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>2007</v>
+      </c>
+      <c r="D28" s="3">
+        <v>17425403</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" t="s">
-        <v>159</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D29" s="3">
-        <v>34009296</v>
+        <v>2016</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" t="s">
-        <v>162</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3">
-        <v>2013</v>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M30" t="s">
-        <v>168</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>2017</v>
+      </c>
+      <c r="D31" s="3">
+        <v>28844694</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M31" t="s">
-        <v>172</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D32" s="3">
-        <v>29513652</v>
+        <v>25453903</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M32" t="s">
-        <v>179</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="D33" s="3">
-        <v>16697960</v>
+        <v>29898995</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M33" t="s">
-        <v>184</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="3">
+        <v>29873416</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34009296</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="3">
+        <v>31068700</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D37" s="3">
+        <v>31243369</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D38" s="3">
+        <v>28974650</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="3">
+        <v>34009296</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O39" t="s">
+        <v>162</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C40" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M34" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D35" s="3">
-        <v>27875302</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" t="s">
-        <v>195</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D36" s="3">
-        <v>27363011</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="M36" t="s">
-        <v>201</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D37" s="3">
-        <v>23750284</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M37" t="s">
-        <v>206</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D38" s="3">
-        <v>25737553</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M38" t="s">
-        <v>212</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2010</v>
-      </c>
-      <c r="D39" s="3">
-        <v>20442286</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M39" t="s">
-        <v>218</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D40" s="3">
-        <v>18212050</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M40" t="s">
-        <v>224</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="s">
+        <v>172</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D41" s="3">
-        <v>30496486</v>
+        <v>29513652</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="M41" t="s">
-        <v>229</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O41" t="s">
+        <v>179</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="3">
-        <v>30042132</v>
+        <v>30496486</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O42" t="s">
+        <v>229</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D43" s="3">
+        <v>30042132</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="5" t="s">
+      <c r="M43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O43" t="s">
         <v>234</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D43" s="3">
-        <v>25737553</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="P43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="3">
+        <v>34341072</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M43" t="s">
-        <v>238</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2007</v>
-      </c>
-      <c r="D44" s="3">
-        <v>17425403</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="M44" t="s">
-        <v>244</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" t="s">
+        <v>251</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3">
         <v>2021</v>
       </c>
-      <c r="D45" s="3">
-        <v>34341072</v>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M45" t="s">
-        <v>252</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O45" t="s">
+        <v>154</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="3">
         <v>2021</v>
       </c>
       <c r="D46" s="3">
-        <v>34341072</v>
+        <v>34830820</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M46" t="s">
-        <v>253</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
-    <sortCondition descending="1" ref="N2:N44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P46">
+    <sortCondition ref="E2:E46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
